--- a/Templates Converted/lcrList.220301.xlsx
+++ b/Templates Converted/lcrList.220301.xlsx
@@ -743,7 +743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -872,6 +872,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -885,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1014,6 +1051,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1027,7 +1101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView zoomScale="81" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
@@ -1167,835 +1241,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dateTime</t>
+          <t>lcrList.220301Request</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>The date and time of the API Request creation</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>schema</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>lcrList.220301Request</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>YYYY-MM-DDTHH:MM:SS[.M{1,6}]</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2019-06-21T23:20:50.000001; 2024-11-08T14:29:00.012345; 9999-12-31T12:55:45.000001</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>searchCriteria</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>settlementBIC</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>searchCriteria</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>The STEP2 Settlement BIC owning liquidity position in CGS</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Bic11Only</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>4!c2!a2!c3!c</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>IPSDID21XXX; TESBIC11XXX; TESBIC99XXX</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>instgAgt</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>searchCriteria</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>The Instructing Agent BIC</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>BIC8</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>4!c2!a2!c</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>TESTIT88; BICDPA23; DPBICA88</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>instdAgt</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>searchCriteria</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>The Instructed Agent BIC</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>BIC8</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>4!c2!a2!c</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>TESTIT88; BICDPA23; DPBICA88</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>instgSttlmBIC</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>searchCriteria</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>The Settlement BIC configured for the Instructing Agent</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Bic11Only</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>4!c2!a2!c3!c</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>IPSDID21XXX; TESBIC11XXX; TESBIC99XXX</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>instdSttlmBIC</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>searchCriteria</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>The Settlement BIC configured for the Instructed Agent</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Bic11Only</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>4!c2!a2!c3!c</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>IPSDID21XXX; TESBIC11XXX; TESBIC99XXX</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>settlementDateFrom</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>searchCriteria</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>The LCR settlement date.
-The lowest value of date and time range for searching LCRs.
-It corresponds to the date when the LCR closed its life-cycle</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>YYYY-MM-DD</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>2019-06-21; 2024-11-08; 9999-12-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>settlementDateTo</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>searchCriteria</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>The LCR settlement date.
-The highest value of date and time range for searching LCRs.
-It corresponds to the date when the LCR closed its life-cycle.</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>YYYY-MM-DD</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>2019-06-21; 2024-11-08; 9999-12-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>dateTimeFrom</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>searchCriteria</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>The lowest value of date and time range for searching LCRs.
-It corresponds to the date and time when the LCR closed its life-cycle.</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>YYYY-MM-DDTHH:MM:SS[.M{1,6}]</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>2019-06-21T23:20:50.000001; 2024-11-08T14:29:00.012345; 9999-12-31T12:55:45.000001</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>dateTimeTo</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>searchCriteria</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>The highest value of date and time range for searching LCRs.
-It corresponds to the date and time when the LCR closed its life-cycle.</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>YYYY-MM-DDTHH:MM:SS[.M{1,6}]</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>2019-06-21T23:20:50.000001; 2024-11-08T14:29:00.012345; 9999-12-31T12:55:45.000001</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>lcrReference</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>searchCriteria</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>The LCR Reference</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>OperationReference1</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>REF0123456789111; REF0123456789000; REF0123456789123</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>lacNumber</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>searchCriteria</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>The LAC in which the lifecycle of the relevant LCR closed</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>LacNumber</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>01; 02; 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>lcrStatus</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>searchCriteria</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>The LCR status</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>LcrStatus</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>STTLD,CANC,REVK,RJCT,QUEU</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>STTLD; CANC; REVK</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>searchCriteria</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>The identifier of the STEP2 Service</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Service</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>DCT</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>DCT</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>offset</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Offset is used in lists that support pagination</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>AAaa88ss2345fggGGDDaaaHH; AAaa88ss2345fggAABBaaaCC; AAaa11ss2345fgg1122aaaLM</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1 D3:D1048576">
@@ -2078,7 +1351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2215,923 +1488,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dateTime</t>
+          <t>lcrList.220301Response</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>The date and time of the API Response creation</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>schema</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>lcrList.220301Response</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>YYYY-MM-DDTHH:MM:SS[.M{1,6}]</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2019-06-21T23:20:50.000001; 2024-11-08T14:29:00.012345; 9999-12-31T12:55:45.000001</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>lcrs</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>array</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>lcrs</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>instgAgt</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>lcrs</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>The Instructing Agent BIC</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>BIC8</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>4!c2!a2!c</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>TESTIT88; BICDPA23; DPBICA88</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>instdAgt</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>lcrs</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>The Instructed Agent BIC</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>BIC8</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>4!c2!a2!c</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>TESTIT88; BICDPA23; DPBICA88</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>instgSttlmBIC</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>lcrs</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>The Settlement BIC configured for the Instructing Agent</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Bic11Only</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>4!c2!a2!c3!c</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>IPSDID21XXX; TESBIC11XXX; TESBIC99XXX</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>instdSttlmBIC</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>lcrs</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>The Settlement BIC configured for the Instructed Agent</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Bic11Only</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>4!c2!a2!c3!c</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>IPSDID21XXX; TESBIC11XXX; TESBIC99XXX</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>settlementDate</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>lcrs</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>The LCR Settlement Date</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>YYYY-MM-DD</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>2019-06-21; 2024-11-08; 9999-12-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>businessDateTime</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>lcrs</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>DateTime when the LCR closed its lifecycle</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>YYYY-MM-DDTHH:MM:SS[.M{1,6}]</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>2019-06-21T23:20:50.000001; 2024-11-08T14:29:00.012345; 9999-12-31T12:55:45.000001</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>lcrReference</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>lcrs</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>The LCR Reference</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>OperationReference1</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>REF0123456789111; REF0123456789000; REF0123456789123</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>lacNumber</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>lcrs</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>The LAC in which the lifecycle of the relevant LCR completed</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>LacNumber</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>01; 02; 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>lcrStatus</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>lcrs</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>The LCR status</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>LcrStatus</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>STTLD,CANC,REVK,RJCT,QUEU</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>STTLD; CANC; REVK</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>lcrs</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>The identifier of the STEP2 Service</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Service</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>DCT</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>DCT</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>lcrs</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>The amount of the LCR</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Amount1</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>double</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>999999999999999.99</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>1000; 100000; 99999.01</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>originalBulkReferenceId</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>lcrs</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>The reference Id of the original bulk</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>BulkReference</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>TESTBULKREF135000000000000000000123; TESTBULKREF135000000000000000999999; TESTBULKREF135123400000000000000567</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>originalInputFileReferenceId</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>lcrs</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>The reference Id of the original input file</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>FileReference</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>16!c</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>TESTFILEREF01234; CGSTFILEREF01234; TESTFILEREF09999</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>dbrCrdFlag</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>lcrs</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Whether the LCR results in a debit or credit position
-C=Credit
-D=Debit</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Sign</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>C,D</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>C; D</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>endOfList</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Flag field used to inform if the last element (record) of the list has been reached:
-true= the record list is completed
-false= the record list is partial</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>boolean</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>offset</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>The offset points to a set of records. It must be used in the request to retrieve the next portion of records (when the endOfList is false)</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>AAaa88ss2345fggGGDDaaaHH; AAaa88ss2345fggAABBaaaCC; AAaa11ss2345fgg1122aaaLM</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3146,7 +1530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3275,6 +1659,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>lcrList.220301Response</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>lcrList.220301Response</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -3288,7 +1709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3425,173 +1846,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dateTime</t>
+          <t>errorResponse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>The date and time of the API Response creation</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>schema</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>errorResponse</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>YYYY-MM-DDTHH:MM:SS[.M{1,6}]</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2019-06-21T23:20:50.000001; 2024-11-08T14:29:00.012345; 9999-12-31T12:55:45.000001</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>errorCode</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>It is set equal to the corresponding errorCode of the wrong request</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>AX01; R01, XT92</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>errorCodeDescription</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>The description of the error</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>255</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Transaction rejected; File rejected; Schema error</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>requestId</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>The univocal reference per senderBIC and date assigned by the system to the API request</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>REQID000011112222333445661234567890; REQID000011112222333445661234567891; REQID000011112222333445661234567892</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3606,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3735,6 +2017,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -3748,7 +2067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3877,6 +2196,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -3890,7 +2246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4019,6 +2375,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
